--- a/Code/Results/Cases/Case_6_27/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_6_27/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.237219593814132</v>
+        <v>0.8648146295959975</v>
       </c>
       <c r="C2">
-        <v>0.4980537226410604</v>
+        <v>0.1122140985924744</v>
       </c>
       <c r="D2">
-        <v>0.01659432644270575</v>
+        <v>0.05861455575954722</v>
       </c>
       <c r="E2">
-        <v>0.208554498284947</v>
+        <v>0.3345300597290048</v>
       </c>
       <c r="F2">
-        <v>1.347139372072633</v>
+        <v>0.5323436695109436</v>
       </c>
       <c r="G2">
-        <v>0.0007841911597773791</v>
+        <v>0.0008015266456941548</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,19 +448,19 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.6101676068930786</v>
+        <v>0.8804441751741194</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.9203766807349396</v>
+        <v>0.5964040172968978</v>
       </c>
       <c r="N2">
-        <v>0.795453422326176</v>
+        <v>0.7386449256281349</v>
       </c>
       <c r="O2">
-        <v>1.025220413665068</v>
+        <v>1.569298472279229</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.932479573600119</v>
+        <v>0.7509544579644682</v>
       </c>
       <c r="C3">
-        <v>0.4309144104446148</v>
+        <v>0.1011297602749579</v>
       </c>
       <c r="D3">
-        <v>0.01786833419192657</v>
+        <v>0.05320379437258538</v>
       </c>
       <c r="E3">
-        <v>0.1806962548974838</v>
+        <v>0.2908796189307381</v>
       </c>
       <c r="F3">
-        <v>1.212919420362098</v>
+        <v>0.5013253287905144</v>
       </c>
       <c r="G3">
-        <v>0.0007911185456308686</v>
+        <v>0.0008051746774312313</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,19 +495,19 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.5267908352087289</v>
+        <v>0.7665515304890107</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.7939396416911251</v>
+        <v>0.5163035025562692</v>
       </c>
       <c r="N3">
-        <v>0.8342939805047394</v>
+        <v>0.7787714897229883</v>
       </c>
       <c r="O3">
-        <v>0.9301602650384098</v>
+        <v>1.513813208619041</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.747567231681245</v>
+        <v>0.6812377095076556</v>
       </c>
       <c r="C4">
-        <v>0.390105291431837</v>
+        <v>0.09431392319705623</v>
       </c>
       <c r="D4">
-        <v>0.01867312118667064</v>
+        <v>0.04986588496335287</v>
       </c>
       <c r="E4">
-        <v>0.1640160182611226</v>
+        <v>0.2645505904221324</v>
       </c>
       <c r="F4">
-        <v>1.13341936474886</v>
+        <v>0.4832517495110267</v>
       </c>
       <c r="G4">
-        <v>0.0007954895542334376</v>
+        <v>0.0008074889764344835</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,19 +542,19 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.4761742860828591</v>
+        <v>0.6967293876708851</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.7175018210818536</v>
+        <v>0.4675520906842507</v>
       </c>
       <c r="N4">
-        <v>0.8597414165635229</v>
+        <v>0.8045013534740111</v>
       </c>
       <c r="O4">
-        <v>0.8741316752682877</v>
+        <v>1.482858884161359</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.672685280139831</v>
+        <v>0.6528647917829744</v>
       </c>
       <c r="C5">
-        <v>0.3735608461843185</v>
+        <v>0.09153297113518022</v>
       </c>
       <c r="D5">
-        <v>0.01900643083699638</v>
+        <v>0.04850153056852946</v>
       </c>
       <c r="E5">
-        <v>0.1573121253005425</v>
+        <v>0.2539271438218833</v>
       </c>
       <c r="F5">
-        <v>1.101685067060785</v>
+        <v>0.476117500823257</v>
       </c>
       <c r="G5">
-        <v>0.0007973015117931607</v>
+        <v>0.0008084511153885199</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,19 +589,19 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.4556702313055183</v>
+        <v>0.6682925457252651</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.6866110777076599</v>
+        <v>0.4477787688655113</v>
       </c>
       <c r="N5">
-        <v>0.8704935381097485</v>
+        <v>0.8152538475044846</v>
       </c>
       <c r="O5">
-        <v>0.8518331564870323</v>
+        <v>1.470988040395454</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.660277385733082</v>
+        <v>0.6481554137229182</v>
       </c>
       <c r="C6">
-        <v>0.370818305905658</v>
+        <v>0.09107096226284739</v>
       </c>
       <c r="D6">
-        <v>0.01906209146601245</v>
+        <v>0.04827472594356408</v>
       </c>
       <c r="E6">
-        <v>0.1562042216115529</v>
+        <v>0.2521691562607487</v>
       </c>
       <c r="F6">
-        <v>1.096453698589769</v>
+        <v>0.474946427141461</v>
       </c>
       <c r="G6">
-        <v>0.0007976042751908238</v>
+        <v>0.000808612037606686</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,19 +636,19 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.4522723277094869</v>
+        <v>0.6635713010792443</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.6814961219192597</v>
+        <v>0.4445006344377944</v>
       </c>
       <c r="N6">
-        <v>0.872301440247206</v>
+        <v>0.8170552348494216</v>
       </c>
       <c r="O6">
-        <v>0.8481612165214756</v>
+        <v>1.469060665595023</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.746555542561083</v>
+        <v>0.680854926478645</v>
       </c>
       <c r="C7">
-        <v>0.3898818442652043</v>
+        <v>0.09427643342783654</v>
       </c>
       <c r="D7">
-        <v>0.01867759503267497</v>
+        <v>0.04984750176011943</v>
       </c>
       <c r="E7">
-        <v>0.1639252457907219</v>
+        <v>0.2644069069454602</v>
       </c>
       <c r="F7">
-        <v>1.13298879004779</v>
+        <v>0.4831546170498342</v>
       </c>
       <c r="G7">
-        <v>0.0007955138649600995</v>
+        <v>0.0008075018746084662</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,19 +683,19 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.4758972933383703</v>
+        <v>0.6963458267941292</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.7170842252972847</v>
+        <v>0.4672850623201157</v>
       </c>
       <c r="N7">
-        <v>0.8598849017309433</v>
+        <v>0.8046452920897185</v>
       </c>
       <c r="O7">
-        <v>0.8738288582001985</v>
+        <v>1.482695831267165</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.131637529913348</v>
+        <v>0.8255082432789038</v>
       </c>
       <c r="C8">
-        <v>0.4748062840777436</v>
+        <v>0.1083937167079085</v>
       </c>
       <c r="D8">
-        <v>0.01702872281942858</v>
+        <v>0.05675206242382558</v>
       </c>
       <c r="E8">
-        <v>0.1988523827870026</v>
+        <v>0.3193732628929951</v>
       </c>
       <c r="F8">
-        <v>1.300212487464151</v>
+        <v>0.5214385125544112</v>
       </c>
       <c r="G8">
-        <v>0.0007865560550660934</v>
+        <v>0.0008027692543319649</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,19 +730,19 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.5812853787173893</v>
+        <v>0.8411446404695084</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.8765066554619594</v>
+        <v>0.5686866632015466</v>
       </c>
       <c r="N8">
-        <v>0.8085011807725451</v>
+        <v>0.7522494678068412</v>
       </c>
       <c r="O8">
-        <v>0.9919241087429924</v>
+        <v>1.549496332201898</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.908299628668146</v>
+        <v>1.111275965125088</v>
       </c>
       <c r="C9">
-        <v>0.6455666820077113</v>
+        <v>0.1360443943136147</v>
       </c>
       <c r="D9">
-        <v>0.01399071714216715</v>
+        <v>0.07017706114929467</v>
       </c>
       <c r="E9">
-        <v>0.271384502472614</v>
+        <v>0.4315401952534259</v>
       </c>
       <c r="F9">
-        <v>1.654684555602898</v>
+        <v>0.6048700091594625</v>
       </c>
       <c r="G9">
-        <v>0.0007698647703291233</v>
+        <v>0.0007940627756872755</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,19 +777,19 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.7936527643726379</v>
+        <v>1.126496051984702</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>1.200720646834199</v>
+        <v>0.7716812357844987</v>
       </c>
       <c r="N9">
-        <v>0.721415696112885</v>
+        <v>0.6585069639631449</v>
       </c>
       <c r="O9">
-        <v>1.244768082436323</v>
+        <v>1.707099584212642</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.498341417183667</v>
+        <v>1.323365996210526</v>
       </c>
       <c r="C10">
-        <v>0.7750546693125671</v>
+        <v>0.1564099980741673</v>
       </c>
       <c r="D10">
-        <v>0.01190519885792796</v>
+        <v>0.07998547814718648</v>
       </c>
       <c r="E10">
-        <v>0.3281820013617462</v>
+        <v>0.5175630069602022</v>
       </c>
       <c r="F10">
-        <v>1.936626113546183</v>
+        <v>0.6722191659163741</v>
       </c>
       <c r="G10">
-        <v>0.0007580460672861333</v>
+        <v>0.0007879923696751901</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,19 +824,19 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.9548985133533137</v>
+        <v>1.337819241281551</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>1.449260001262289</v>
+        <v>0.9244464747417922</v>
       </c>
       <c r="N10">
-        <v>0.6672980352026627</v>
+        <v>0.595623216323121</v>
       </c>
       <c r="O10">
-        <v>1.447675367339045</v>
+        <v>1.841927410749975</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.772586614518161</v>
+        <v>1.420520125636898</v>
       </c>
       <c r="C11">
-        <v>0.8352093027694707</v>
+        <v>0.1657031452295854</v>
       </c>
       <c r="D11">
-        <v>0.01099588598916101</v>
+        <v>0.08443927131389017</v>
       </c>
       <c r="E11">
-        <v>0.3550514618681717</v>
+        <v>0.5577108064358782</v>
       </c>
       <c r="F11">
-        <v>2.070912007547349</v>
+        <v>0.704400295204664</v>
       </c>
       <c r="G11">
-        <v>0.0007527435489853788</v>
+        <v>0.0007852960254910505</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.029829947455937</v>
+        <v>1.43451702935451</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>1.565408630165592</v>
+        <v>0.9949955023637926</v>
       </c>
       <c r="N11">
-        <v>0.64521003429914</v>
+        <v>0.5684352210488228</v>
       </c>
       <c r="O11">
-        <v>1.544769017602988</v>
+        <v>1.908070002979514</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.877426069273554</v>
+        <v>1.457424698226447</v>
       </c>
       <c r="C12">
-        <v>0.8582034311060625</v>
+        <v>0.1692278870917647</v>
       </c>
       <c r="D12">
-        <v>0.01065800704375297</v>
+        <v>0.08612494254683867</v>
       </c>
       <c r="E12">
-        <v>0.3654004866620681</v>
+        <v>0.5730805352565937</v>
       </c>
       <c r="F12">
-        <v>2.122758011340267</v>
+        <v>0.7168288090388728</v>
       </c>
       <c r="G12">
-        <v>0.000750744145090243</v>
+        <v>0.0007842838638349809</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,19 +918,19 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.058473667272423</v>
+        <v>1.471232718057735</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>1.609914631944108</v>
+        <v>1.021886121138586</v>
       </c>
       <c r="N12">
-        <v>0.6372472617122398</v>
+        <v>0.5583546429083022</v>
       </c>
       <c r="O12">
-        <v>1.582325836577951</v>
+        <v>1.933868308556015</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.854800456787927</v>
+        <v>1.449471255376778</v>
       </c>
       <c r="C13">
-        <v>0.8532410701979813</v>
+        <v>0.1684684952918332</v>
       </c>
       <c r="D13">
-        <v>0.01073047396038396</v>
+        <v>0.08576193768167428</v>
       </c>
       <c r="E13">
-        <v>0.3631634474767438</v>
+        <v>0.5697626316865794</v>
       </c>
       <c r="F13">
-        <v>2.111545597428574</v>
+        <v>0.7141409954399904</v>
       </c>
       <c r="G13">
-        <v>0.0007511744080951974</v>
+        <v>0.000784501463690568</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,19 +965,19 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.052292056736775</v>
+        <v>1.463320679758453</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>1.600304838235743</v>
+        <v>1.016086557331342</v>
       </c>
       <c r="N13">
-        <v>0.6389436823020134</v>
+        <v>0.5605159331803637</v>
       </c>
       <c r="O13">
-        <v>1.574200450385078</v>
+        <v>1.928277753087286</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.781191079118969</v>
+        <v>1.423553888559326</v>
       </c>
       <c r="C14">
-        <v>0.8370965200214755</v>
+        <v>0.1659930060165635</v>
       </c>
       <c r="D14">
-        <v>0.01096795401413786</v>
+        <v>0.08457796852347599</v>
       </c>
       <c r="E14">
-        <v>0.3558992327139379</v>
+        <v>0.5589718196245599</v>
       </c>
       <c r="F14">
-        <v>2.075156683427053</v>
+        <v>0.7054178209287016</v>
       </c>
       <c r="G14">
-        <v>0.0007525788982753196</v>
+        <v>0.0007852125791109752</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.032180839586871</v>
+        <v>1.4375355784872</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>1.569059194330379</v>
+        <v>0.9972041565224075</v>
       </c>
       <c r="N14">
-        <v>0.6445466539296092</v>
+        <v>0.5676015125334075</v>
       </c>
       <c r="O14">
-        <v>1.547842394543039</v>
+        <v>1.91017702332249</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.736236736992169</v>
+        <v>1.407694197520073</v>
       </c>
       <c r="C15">
-        <v>0.8272366182053474</v>
+        <v>0.1644774770290667</v>
       </c>
       <c r="D15">
-        <v>0.01111428434467232</v>
+        <v>0.08385264686457106</v>
       </c>
       <c r="E15">
-        <v>0.3514731916748843</v>
+        <v>0.5523844764096566</v>
       </c>
       <c r="F15">
-        <v>2.053001040296024</v>
+        <v>0.7001067943761399</v>
       </c>
       <c r="G15">
-        <v>0.0007534402359990329</v>
+        <v>0.0007856493001810683</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,19 +1059,19 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.01989846729667</v>
+        <v>1.42175479159738</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>1.549990968592567</v>
+        <v>0.9856616906591853</v>
       </c>
       <c r="N15">
-        <v>0.648032115391814</v>
+        <v>0.5719699642195053</v>
       </c>
       <c r="O15">
-        <v>1.531803348516632</v>
+        <v>1.899189534295857</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.480548634892216</v>
+        <v>1.317031768122916</v>
       </c>
       <c r="C16">
-        <v>0.7711514791528771</v>
+        <v>0.1558033722738514</v>
       </c>
       <c r="D16">
-        <v>0.01196548205753389</v>
+        <v>0.07969427284671582</v>
       </c>
       <c r="E16">
-        <v>0.3264489108243396</v>
+        <v>0.5149614108809644</v>
       </c>
       <c r="F16">
-        <v>1.927982122963556</v>
+        <v>0.6701488133636246</v>
       </c>
       <c r="G16">
-        <v>0.0007583939136189307</v>
+        <v>0.0007881698522713096</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,19 +1106,19 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.9500368051197796</v>
+        <v>1.331512620361508</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>1.441738075568537</v>
+        <v>0.9198591300401731</v>
       </c>
       <c r="N16">
-        <v>0.6687955667450893</v>
+        <v>0.5974294746141844</v>
       </c>
       <c r="O16">
-        <v>1.441434796443431</v>
+        <v>1.837706634891987</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.325287343873754</v>
+        <v>1.261597863987049</v>
       </c>
       <c r="C17">
-        <v>0.7370888549733365</v>
+        <v>0.1504904741606907</v>
       </c>
       <c r="D17">
-        <v>0.0124982772830351</v>
+        <v>0.07714136361691004</v>
       </c>
       <c r="E17">
-        <v>0.3113789389569703</v>
+        <v>0.4922778020290934</v>
       </c>
       <c r="F17">
-        <v>1.852917579100435</v>
+        <v>0.6521798834344423</v>
       </c>
       <c r="G17">
-        <v>0.0007614503494059119</v>
+        <v>0.0007897324762653742</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,19 +1153,19 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.9076116734624691</v>
+        <v>1.276308561008705</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>1.376172356460984</v>
+        <v>0.8797778064948929</v>
       </c>
       <c r="N17">
-        <v>0.6822067086534886</v>
+        <v>0.6134188587717642</v>
       </c>
       <c r="O17">
-        <v>1.387291432218504</v>
+        <v>1.801261866359738</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.236524140482459</v>
+        <v>1.229775995101278</v>
       </c>
       <c r="C18">
-        <v>0.7176122363284776</v>
+        <v>0.1474372430569275</v>
       </c>
       <c r="D18">
-        <v>0.01280838058322642</v>
+        <v>0.075672216839898</v>
       </c>
       <c r="E18">
-        <v>0.3028065016084867</v>
+        <v>0.4793250514353247</v>
       </c>
       <c r="F18">
-        <v>1.810301443742674</v>
+        <v>0.6419886320291042</v>
       </c>
       <c r="G18">
-        <v>0.0007632154209502584</v>
+        <v>0.0007906374154700461</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.883355802533984</v>
+        <v>1.24460881202981</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>1.338745957269552</v>
+        <v>0.8568219106878558</v>
       </c>
       <c r="N18">
-        <v>0.6901561097718698</v>
+        <v>0.6227483075550317</v>
       </c>
       <c r="O18">
-        <v>1.356593766600199</v>
+        <v>1.780748574724356</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.206558727917354</v>
+        <v>1.21901183311661</v>
       </c>
       <c r="C19">
-        <v>0.7110365900120428</v>
+        <v>0.1464038757397503</v>
       </c>
       <c r="D19">
-        <v>0.01291398178190661</v>
+        <v>0.07517464659265727</v>
       </c>
       <c r="E19">
-        <v>0.2999196773757191</v>
+        <v>0.4749550626023336</v>
       </c>
       <c r="F19">
-        <v>1.795964710509693</v>
+        <v>0.638562188415996</v>
       </c>
       <c r="G19">
-        <v>0.0007638143211091632</v>
+        <v>0.0007909448842758321</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,19 +1247,19 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.8751670589055607</v>
+        <v>1.233884285024288</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>1.326120761067671</v>
+        <v>0.8490655549495685</v>
       </c>
       <c r="N19">
-        <v>0.6928870441229691</v>
+        <v>0.6259295809450904</v>
       </c>
       <c r="O19">
-        <v>1.346273474369553</v>
+        <v>1.773878445077287</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.341758359654648</v>
+        <v>1.267492332154745</v>
       </c>
       <c r="C20">
-        <v>0.7407027053909303</v>
+        <v>0.1510557609440468</v>
       </c>
       <c r="D20">
-        <v>0.01244117688423163</v>
+        <v>0.0774132040044293</v>
       </c>
       <c r="E20">
-        <v>0.312973112451651</v>
+        <v>0.4946826115760246</v>
       </c>
       <c r="F20">
-        <v>1.86084959519863</v>
+        <v>0.654077661019187</v>
       </c>
       <c r="G20">
-        <v>0.0007611242669986006</v>
+        <v>0.0007895654981568249</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,19 +1294,19 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.9121125109496262</v>
+        <v>1.282179609567606</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>1.383121872545061</v>
+        <v>0.8840342436269069</v>
       </c>
       <c r="N20">
-        <v>0.6807544212058403</v>
+        <v>0.6117029423555707</v>
       </c>
       <c r="O20">
-        <v>1.393008424889842</v>
+        <v>1.805094606546675</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.802783816872875</v>
+        <v>1.431163195544059</v>
       </c>
       <c r="C21">
-        <v>0.8418324319844999</v>
+        <v>0.1667199518833229</v>
       </c>
       <c r="D21">
-        <v>0.01089801807954727</v>
+        <v>0.08492575059953111</v>
       </c>
       <c r="E21">
-        <v>0.3580279604335317</v>
+        <v>0.562136647669135</v>
       </c>
       <c r="F21">
-        <v>2.085816893351719</v>
+        <v>0.7079732863894179</v>
       </c>
       <c r="G21">
-        <v>0.0007521661513006928</v>
+        <v>0.0007850034701146735</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.038080339084985</v>
+        <v>1.445106477200795</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>1.578221921867424</v>
+        <v>1.002745422960672</v>
       </c>
       <c r="N21">
-        <v>0.6428897064146923</v>
+        <v>0.5655143814648973</v>
       </c>
       <c r="O21">
-        <v>1.555562101591278</v>
+        <v>1.915472749183692</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.109937054445254</v>
+        <v>1.53880758402471</v>
       </c>
       <c r="C22">
-        <v>0.9091986486104986</v>
+        <v>0.1769910051746564</v>
       </c>
       <c r="D22">
-        <v>0.009927591600252139</v>
+        <v>0.08983062918458273</v>
       </c>
       <c r="E22">
-        <v>0.3885034480876044</v>
+        <v>0.6072038444469285</v>
       </c>
       <c r="F22">
-        <v>2.238715771958425</v>
+        <v>0.7446194987894614</v>
       </c>
       <c r="G22">
-        <v>0.0007463601635565626</v>
+        <v>0.0007820734665283508</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,19 +1388,19 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.121997569510569</v>
+        <v>1.552170614875791</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>1.708823961027008</v>
+        <v>1.081363741127859</v>
       </c>
       <c r="N22">
-        <v>0.6205039972639668</v>
+        <v>0.5365859298648097</v>
       </c>
       <c r="O22">
-        <v>1.666458523837051</v>
+        <v>1.992022932609217</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.94541417474295</v>
+        <v>1.481287729173772</v>
       </c>
       <c r="C23">
-        <v>0.8731148288048018</v>
+        <v>0.171505547227369</v>
       </c>
       <c r="D23">
-        <v>0.01044173890191269</v>
+        <v>0.0872131627433177</v>
       </c>
       <c r="E23">
-        <v>0.3721344839806946</v>
+        <v>0.5830535044813985</v>
       </c>
       <c r="F23">
-        <v>2.156527258478917</v>
+        <v>0.7249235078155891</v>
       </c>
       <c r="G23">
-        <v>0.0007494552281633759</v>
+        <v>0.0007836327145368893</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,19 +1435,19 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.077048762551982</v>
+        <v>1.494969259984941</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>1.638807361233305</v>
+        <v>1.039300815728652</v>
       </c>
       <c r="N23">
-        <v>0.632221946458877</v>
+        <v>0.5519065949288482</v>
       </c>
       <c r="O23">
-        <v>1.606808178283458</v>
+        <v>1.950741971740371</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.334310271563311</v>
+        <v>1.264827295458218</v>
       </c>
       <c r="C24">
-        <v>0.7390685546857867</v>
+        <v>0.1508001910860486</v>
       </c>
       <c r="D24">
-        <v>0.01246698022096648</v>
+        <v>0.07729030948794957</v>
       </c>
       <c r="E24">
-        <v>0.312252103544715</v>
+        <v>0.493595123498821</v>
       </c>
       <c r="F24">
-        <v>1.857261859855811</v>
+        <v>0.6532192433176718</v>
       </c>
       <c r="G24">
-        <v>0.0007612716641545173</v>
+        <v>0.0007896409684324087</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,19 +1482,19 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.9100772652113136</v>
+        <v>1.279525192042513</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>1.379979166775243</v>
+        <v>0.8821096379476074</v>
       </c>
       <c r="N24">
-        <v>0.6814102582251493</v>
+        <v>0.6124782824559141</v>
       </c>
       <c r="O24">
-        <v>1.390422440371708</v>
+        <v>1.803360460902155</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.695276207504548</v>
+        <v>1.033658319470305</v>
       </c>
       <c r="C25">
-        <v>0.5987785198410336</v>
+        <v>0.1285607234210033</v>
       </c>
       <c r="D25">
-        <v>0.01478910946154155</v>
+        <v>0.06655603714047231</v>
       </c>
       <c r="E25">
-        <v>0.2512293245529378</v>
+        <v>0.4006341332962577</v>
       </c>
       <c r="F25">
-        <v>1.555431896248564</v>
+        <v>0.5813097998554042</v>
       </c>
       <c r="G25">
-        <v>0.0007742952033619657</v>
+        <v>0.0007963590152048774</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,19 +1529,19 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.7354223459939604</v>
+        <v>1.049069531648854</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>1.111454784499372</v>
+        <v>0.7162134233453799</v>
       </c>
       <c r="N25">
-        <v>0.7433628478524383</v>
+        <v>0.6828532443533852</v>
       </c>
       <c r="O25">
-        <v>1.173685824683687</v>
+        <v>1.661335719321812</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_6_27/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_6_27/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.8648146295959975</v>
+        <v>0.7213545368369978</v>
       </c>
       <c r="C2">
-        <v>0.1122140985924744</v>
+        <v>0.166462056357048</v>
       </c>
       <c r="D2">
-        <v>0.05861455575954722</v>
+        <v>0.07776241965929387</v>
       </c>
       <c r="E2">
-        <v>0.3345300597290048</v>
+        <v>0.3461970572907163</v>
       </c>
       <c r="F2">
-        <v>0.5323436695109436</v>
+        <v>0.3612090363515534</v>
       </c>
       <c r="G2">
-        <v>0.0008015266456941548</v>
+        <v>0.2571083365570601</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.001692353180664519</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.2420851992248387</v>
       </c>
       <c r="K2">
-        <v>0.8804441751741194</v>
+        <v>0.2254615827358037</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.5964040172968978</v>
+        <v>0.8133818713288719</v>
       </c>
       <c r="N2">
-        <v>0.7386449256281349</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>1.569298472279229</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0.579441072297179</v>
+      </c>
+      <c r="P2">
+        <v>0.6916612581380903</v>
+      </c>
+      <c r="Q2">
+        <v>1.0008342121005</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.7509544579644682</v>
+        <v>0.6291002716885714</v>
       </c>
       <c r="C3">
-        <v>0.1011297602749579</v>
+        <v>0.1509650984197464</v>
       </c>
       <c r="D3">
-        <v>0.05320379437258538</v>
+        <v>0.06889134392394425</v>
       </c>
       <c r="E3">
-        <v>0.2908796189307381</v>
+        <v>0.3017090608974229</v>
       </c>
       <c r="F3">
-        <v>0.5013253287905144</v>
+        <v>0.3423284132886124</v>
       </c>
       <c r="G3">
-        <v>0.0008051746774312313</v>
+        <v>0.2468334754988248</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.001013885220769506</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.2415374309973188</v>
       </c>
       <c r="K3">
-        <v>0.7665515304890107</v>
+        <v>0.227047374272896</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.5163035025562692</v>
+        <v>0.7134518179608591</v>
       </c>
       <c r="N3">
-        <v>0.7787714897229883</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>1.513813208619041</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0.5022829639559347</v>
+      </c>
+      <c r="P3">
+        <v>0.7186148815518685</v>
+      </c>
+      <c r="Q3">
+        <v>0.9776287524108938</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6812377095076556</v>
+        <v>0.5721229153917875</v>
       </c>
       <c r="C4">
-        <v>0.09431392319705623</v>
+        <v>0.1415445375495636</v>
       </c>
       <c r="D4">
-        <v>0.04986588496335287</v>
+        <v>0.06344530758599376</v>
       </c>
       <c r="E4">
-        <v>0.2645505904221324</v>
+        <v>0.2748516577984503</v>
       </c>
       <c r="F4">
-        <v>0.4832517495110267</v>
+        <v>0.3311743169804089</v>
       </c>
       <c r="G4">
-        <v>0.0008074889764344835</v>
+        <v>0.2408856336637299</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.0007311674546959246</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.2414571057333887</v>
       </c>
       <c r="K4">
-        <v>0.6967293876708851</v>
+        <v>0.2282451934776226</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.4675520906842507</v>
+        <v>0.6519845991000892</v>
       </c>
       <c r="N4">
-        <v>0.8045013534740111</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>1.482858884161359</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0.4551866622970309</v>
+      </c>
+      <c r="P4">
+        <v>0.7358634708455298</v>
+      </c>
+      <c r="Q4">
+        <v>0.964674375755024</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6528647917829744</v>
+        <v>0.5482573376794733</v>
       </c>
       <c r="C5">
-        <v>0.09153297113518022</v>
+        <v>0.1380208436311818</v>
       </c>
       <c r="D5">
-        <v>0.04850153056852946</v>
+        <v>0.06127378957216223</v>
       </c>
       <c r="E5">
-        <v>0.2539271438218833</v>
+        <v>0.264004085428482</v>
       </c>
       <c r="F5">
-        <v>0.476117500823257</v>
+        <v>0.3264660746278949</v>
       </c>
       <c r="G5">
-        <v>0.0008084511153885199</v>
+        <v>0.2382921640798656</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.0007096377632827</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.2413540940879244</v>
       </c>
       <c r="K5">
-        <v>0.6682925457252651</v>
+        <v>0.2285654535333279</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.4477787688655113</v>
+        <v>0.6269339168131296</v>
       </c>
       <c r="N5">
-        <v>0.8152538475044846</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>1.470988040395454</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0.4360610513116114</v>
+      </c>
+      <c r="P5">
+        <v>0.7430780517976761</v>
+      </c>
+      <c r="Q5">
+        <v>0.9588863633151448</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6481554137229182</v>
+        <v>0.543601341831021</v>
       </c>
       <c r="C6">
-        <v>0.09107096226284739</v>
+        <v>0.13779839772792</v>
       </c>
       <c r="D6">
-        <v>0.04827472594356408</v>
+        <v>0.06097210093823691</v>
       </c>
       <c r="E6">
-        <v>0.2521691562607487</v>
+        <v>0.2622006787631506</v>
       </c>
       <c r="F6">
-        <v>0.474946427141461</v>
+        <v>0.3253628494911567</v>
       </c>
       <c r="G6">
-        <v>0.000808612037606686</v>
+        <v>0.237553773023599</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.0007909336607543338</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.2411784113876649</v>
       </c>
       <c r="K6">
-        <v>0.6635713010792443</v>
+        <v>0.2283501865607338</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.4445006344377944</v>
+        <v>0.6228085418855045</v>
       </c>
       <c r="N6">
-        <v>0.8170552348494216</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>1.469060665595023</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0.4328970271929222</v>
+      </c>
+      <c r="P6">
+        <v>0.7443047021863638</v>
+      </c>
+      <c r="Q6">
+        <v>0.9569403810641433</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.680854926478645</v>
+        <v>0.5699154443821897</v>
       </c>
       <c r="C7">
-        <v>0.09427643342783654</v>
+        <v>0.142486407199101</v>
       </c>
       <c r="D7">
-        <v>0.04984750176011943</v>
+        <v>0.06357746999486835</v>
       </c>
       <c r="E7">
-        <v>0.2644069069454602</v>
+        <v>0.2746827321625815</v>
       </c>
       <c r="F7">
-        <v>0.4831546170498342</v>
+        <v>0.330215243241021</v>
       </c>
       <c r="G7">
-        <v>0.0008075018746084662</v>
+        <v>0.2399956940133592</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.0009426719158938113</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.24101275494737</v>
       </c>
       <c r="K7">
-        <v>0.6963458267941292</v>
+        <v>0.2275077896386328</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.4672850623201157</v>
+        <v>0.6517463512552979</v>
       </c>
       <c r="N7">
-        <v>0.8046452920897185</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>1.482695831267165</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0.4549512811582943</v>
+      </c>
+      <c r="P7">
+        <v>0.7360202886951033</v>
+      </c>
+      <c r="Q7">
+        <v>0.9618555050278133</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.8255082432789038</v>
+        <v>0.6870916034822869</v>
       </c>
       <c r="C8">
-        <v>0.1083937167079085</v>
+        <v>0.1624212338936815</v>
       </c>
       <c r="D8">
-        <v>0.05675206242382558</v>
+        <v>0.07491916122649656</v>
       </c>
       <c r="E8">
-        <v>0.3193732628929951</v>
+        <v>0.3307254318353046</v>
       </c>
       <c r="F8">
-        <v>0.5214385125544112</v>
+        <v>0.3534193216261698</v>
       </c>
       <c r="G8">
-        <v>0.0008027692543319649</v>
+        <v>0.2523571742285498</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.001683125623362258</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.2412589515427328</v>
       </c>
       <c r="K8">
-        <v>0.8411446404695084</v>
+        <v>0.2249841935989068</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.5686866632015466</v>
+        <v>0.7790786096856124</v>
       </c>
       <c r="N8">
-        <v>0.7522494678068412</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>1.549496332201898</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0.5528009825269891</v>
+      </c>
+      <c r="P8">
+        <v>0.7009315069547064</v>
+      </c>
+      <c r="Q8">
+        <v>0.9889372765909172</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.111275965125088</v>
+        <v>0.9177104386805581</v>
       </c>
       <c r="C9">
-        <v>0.1360443943136147</v>
+        <v>0.2006028091529544</v>
       </c>
       <c r="D9">
-        <v>0.07017706114929467</v>
+        <v>0.09689870160834602</v>
       </c>
       <c r="E9">
-        <v>0.4315401952534259</v>
+        <v>0.4448600411682619</v>
       </c>
       <c r="F9">
-        <v>0.6048700091594625</v>
+        <v>0.4042609004033295</v>
       </c>
       <c r="G9">
-        <v>0.0007940627756872755</v>
+        <v>0.2812103072309853</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.00396574152104634</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.2446521313520691</v>
       </c>
       <c r="K9">
-        <v>1.126496051984702</v>
+        <v>0.2232163272989709</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.7716812357844987</v>
+        <v>1.027945461538906</v>
       </c>
       <c r="N9">
-        <v>0.6585069639631449</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>1.707099584212642</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0.7473726273053316</v>
+      </c>
+      <c r="P9">
+        <v>0.6376764989024064</v>
+      </c>
+      <c r="Q9">
+        <v>1.057859429942127</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.323365996210526</v>
+        <v>1.084706815142511</v>
       </c>
       <c r="C10">
-        <v>0.1564099980741673</v>
+        <v>0.2299042066114225</v>
       </c>
       <c r="D10">
-        <v>0.07998547814718648</v>
+        <v>0.1131866850449512</v>
       </c>
       <c r="E10">
-        <v>0.5175630069602022</v>
+        <v>0.5320877686233061</v>
       </c>
       <c r="F10">
-        <v>0.6722191659163741</v>
+        <v>0.4438209534963491</v>
       </c>
       <c r="G10">
-        <v>0.0007879923696751901</v>
+        <v>0.3041877526672323</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.006577888898531725</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.2483584364904985</v>
       </c>
       <c r="K10">
-        <v>1.337819241281551</v>
+        <v>0.2228144939080039</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.9244464747417922</v>
+        <v>1.210782157568843</v>
       </c>
       <c r="N10">
-        <v>0.595623216323121</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>1.841927410749975</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0.892761203171645</v>
+      </c>
+      <c r="P10">
+        <v>0.5950708697013809</v>
+      </c>
+      <c r="Q10">
+        <v>1.114773926193379</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.420520125636898</v>
+        <v>1.157181699793938</v>
       </c>
       <c r="C11">
-        <v>0.1657031452295854</v>
+        <v>0.2451432819484864</v>
       </c>
       <c r="D11">
-        <v>0.08443927131389017</v>
+        <v>0.120892787620221</v>
       </c>
       <c r="E11">
-        <v>0.5577108064358782</v>
+        <v>0.5726620957815669</v>
       </c>
       <c r="F11">
-        <v>0.704400295204664</v>
+        <v>0.4610157352082069</v>
       </c>
       <c r="G11">
-        <v>0.0007852960254910505</v>
+        <v>0.313802188111552</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.008316026641166374</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.2496771375786722</v>
       </c>
       <c r="K11">
-        <v>1.43451702935451</v>
+        <v>0.2217502392910937</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.9949955023637926</v>
+        <v>1.294192838486737</v>
       </c>
       <c r="N11">
-        <v>0.5684352210488228</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>1.908070002979514</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0.9596381039107627</v>
+      </c>
+      <c r="P11">
+        <v>0.5768943323878268</v>
+      </c>
+      <c r="Q11">
+        <v>1.138111009591199</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.457424698226447</v>
+        <v>1.186281418311609</v>
       </c>
       <c r="C12">
-        <v>0.1692278870917647</v>
+        <v>0.2500484358616717</v>
       </c>
       <c r="D12">
-        <v>0.08612494254683867</v>
+        <v>0.1236690317907687</v>
       </c>
       <c r="E12">
-        <v>0.5730805352565937</v>
+        <v>0.5881992027017873</v>
       </c>
       <c r="F12">
-        <v>0.7168288090388728</v>
+        <v>0.4684092938283655</v>
       </c>
       <c r="G12">
-        <v>0.0007842838638349809</v>
+        <v>0.3182700838385131</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.008829396872443773</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.2506068307742169</v>
       </c>
       <c r="K12">
-        <v>1.471232718057735</v>
+        <v>0.2220245678106174</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>1.021886121138586</v>
+        <v>1.325708500009625</v>
       </c>
       <c r="N12">
-        <v>0.5583546429083022</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>1.933868308556015</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0.9850659250809812</v>
+      </c>
+      <c r="P12">
+        <v>0.5699907278108256</v>
+      </c>
+      <c r="Q12">
+        <v>1.149602035261552</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.449471255376778</v>
+        <v>1.180357945325284</v>
       </c>
       <c r="C13">
-        <v>0.1684684952918332</v>
+        <v>0.2488083389246754</v>
       </c>
       <c r="D13">
-        <v>0.08576193768167428</v>
+        <v>0.1230415241028879</v>
       </c>
       <c r="E13">
-        <v>0.5697626316865794</v>
+        <v>0.5848502224293952</v>
       </c>
       <c r="F13">
-        <v>0.7141409954399904</v>
+        <v>0.4669689544404605</v>
       </c>
       <c r="G13">
-        <v>0.000784501463690568</v>
+        <v>0.3174527767692297</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.008678782024253984</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.2504801814474007</v>
       </c>
       <c r="K13">
-        <v>1.463320679758453</v>
+        <v>0.2220899592444106</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>1.016086557331342</v>
+        <v>1.318902634566655</v>
       </c>
       <c r="N13">
-        <v>0.5605159331803637</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>1.928277753087286</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0.9795811648559223</v>
+      </c>
+      <c r="P13">
+        <v>0.571438213249774</v>
+      </c>
+      <c r="Q13">
+        <v>1.147588649068467</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.423553888559326</v>
+        <v>1.15972167118818</v>
       </c>
       <c r="C14">
-        <v>0.1659930060165635</v>
+        <v>0.2454687900762451</v>
       </c>
       <c r="D14">
-        <v>0.08457796852347599</v>
+        <v>0.1211086226851563</v>
       </c>
       <c r="E14">
-        <v>0.5589718196245599</v>
+        <v>0.5739389981665326</v>
       </c>
       <c r="F14">
-        <v>0.7054178209287016</v>
+        <v>0.4616884595393955</v>
       </c>
       <c r="G14">
-        <v>0.0007852125791109752</v>
+        <v>0.3142312371686984</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.008340906896729727</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.2497848328289649</v>
       </c>
       <c r="K14">
-        <v>1.4375355784872</v>
+        <v>0.2218256425230294</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.9972041565224075</v>
+        <v>1.296777812593518</v>
       </c>
       <c r="N14">
-        <v>0.5676015125334075</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>1.91017702332249</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0.9617263532872542</v>
+      </c>
+      <c r="P14">
+        <v>0.5763096818867552</v>
+      </c>
+      <c r="Q14">
+        <v>1.139252093010811</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.407694197520073</v>
+        <v>1.146404156747707</v>
       </c>
       <c r="C15">
-        <v>0.1644774770290667</v>
+        <v>0.2437863532962439</v>
       </c>
       <c r="D15">
-        <v>0.08385264686457106</v>
+        <v>0.119983040073123</v>
       </c>
       <c r="E15">
-        <v>0.5523844764096566</v>
+        <v>0.5672675365892275</v>
       </c>
       <c r="F15">
-        <v>0.7001067943761399</v>
+        <v>0.4581592072205893</v>
       </c>
       <c r="G15">
-        <v>0.0007856493001810683</v>
+        <v>0.3119763438097323</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.008218462124219172</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.2492161884410962</v>
       </c>
       <c r="K15">
-        <v>1.42175479159738</v>
+        <v>0.2214206498273086</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.9856616906591853</v>
+        <v>1.283262756208586</v>
       </c>
       <c r="N15">
-        <v>0.5719699642195053</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>1.899189534295857</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0.9508115090300393</v>
+      </c>
+      <c r="P15">
+        <v>0.5793753591649242</v>
+      </c>
+      <c r="Q15">
+        <v>1.133249629597088</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.317031768122916</v>
+        <v>1.074310249169713</v>
       </c>
       <c r="C16">
-        <v>0.1558033722738514</v>
+        <v>0.2319177566644299</v>
       </c>
       <c r="D16">
-        <v>0.07969427284671582</v>
+        <v>0.1131697373412237</v>
       </c>
       <c r="E16">
-        <v>0.5149614108809644</v>
+        <v>0.5293869819598029</v>
       </c>
       <c r="F16">
-        <v>0.6701488133636246</v>
+        <v>0.4401103250973506</v>
       </c>
       <c r="G16">
-        <v>0.0007881698522713096</v>
+        <v>0.3010985085664331</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.007090726670934799</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.2470162168736252</v>
       </c>
       <c r="K16">
-        <v>1.331512620361508</v>
+        <v>0.2207833099094749</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.9198591300401731</v>
+        <v>1.205624851260922</v>
       </c>
       <c r="N16">
-        <v>0.5974294746141844</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>1.837706634891987</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0.8884573252205143</v>
+      </c>
+      <c r="P16">
+        <v>0.5967881856260462</v>
+      </c>
+      <c r="Q16">
+        <v>1.105400602702119</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.261597863987049</v>
+        <v>1.03003794222326</v>
       </c>
       <c r="C17">
-        <v>0.1504904741606907</v>
+        <v>0.2246789493366634</v>
       </c>
       <c r="D17">
-        <v>0.07714136361691004</v>
+        <v>0.1089936127326752</v>
       </c>
       <c r="E17">
-        <v>0.4922778020290934</v>
+        <v>0.5064000596034504</v>
       </c>
       <c r="F17">
-        <v>0.6521798834344423</v>
+        <v>0.4292249648751181</v>
       </c>
       <c r="G17">
-        <v>0.0007897324762653742</v>
+        <v>0.2945829151383208</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.006461360125830318</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.245761557600737</v>
       </c>
       <c r="K17">
-        <v>1.276308561008705</v>
+        <v>0.2204806295428696</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.8797778064948929</v>
+        <v>1.158018689816032</v>
       </c>
       <c r="N17">
-        <v>0.6134188587717642</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>1.801261866359738</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0.8503984013605077</v>
+      </c>
+      <c r="P17">
+        <v>0.6076953973823009</v>
+      </c>
+      <c r="Q17">
+        <v>1.088847196629942</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.229775995101278</v>
+        <v>1.0062608469959</v>
       </c>
       <c r="C18">
-        <v>0.1474372430569275</v>
+        <v>0.2196174149702728</v>
       </c>
       <c r="D18">
-        <v>0.075672216839898</v>
+        <v>0.1064457526580327</v>
       </c>
       <c r="E18">
-        <v>0.4793250514353247</v>
+        <v>0.4932862762803012</v>
       </c>
       <c r="F18">
-        <v>0.6419886320291042</v>
+        <v>0.4238166491208091</v>
       </c>
       <c r="G18">
-        <v>0.0007906374154700461</v>
+        <v>0.2916384056745542</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.005894758594069849</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.2454563358156392</v>
       </c>
       <c r="K18">
-        <v>1.24460881202981</v>
+        <v>0.220974571257667</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.8568219106878558</v>
+        <v>1.130554218577544</v>
       </c>
       <c r="N18">
-        <v>0.6227483075550317</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>1.780748574724356</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0.8285578051461258</v>
+      </c>
+      <c r="P18">
+        <v>0.613900412397431</v>
+      </c>
+      <c r="Q18">
+        <v>1.081900220838989</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.21901183311661</v>
+        <v>0.9968919989783274</v>
       </c>
       <c r="C19">
-        <v>0.1464038757397503</v>
+        <v>0.218609395867233</v>
       </c>
       <c r="D19">
-        <v>0.07517464659265727</v>
+        <v>0.1056966523159417</v>
       </c>
       <c r="E19">
-        <v>0.4749550626023336</v>
+        <v>0.4888445721443162</v>
       </c>
       <c r="F19">
-        <v>0.638562188415996</v>
+        <v>0.4213899183011733</v>
       </c>
       <c r="G19">
-        <v>0.0007909448842758321</v>
+        <v>0.2900742059488266</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.005878038748218906</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.2450637004856091</v>
       </c>
       <c r="K19">
-        <v>1.233884285024288</v>
+        <v>0.2206560285426455</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.8490655549495685</v>
+        <v>1.121324485270094</v>
       </c>
       <c r="N19">
-        <v>0.6259295809450904</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>1.773878445077287</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0.8211862650058706</v>
+      </c>
+      <c r="P19">
+        <v>0.6161304037981559</v>
+      </c>
+      <c r="Q19">
+        <v>1.077739446492259</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.267492332154745</v>
+        <v>1.034886511543107</v>
       </c>
       <c r="C20">
-        <v>0.1510557609440468</v>
+        <v>0.22537626477326</v>
       </c>
       <c r="D20">
-        <v>0.0774132040044293</v>
+        <v>0.1094264936399441</v>
       </c>
       <c r="E20">
-        <v>0.4946826115760246</v>
+        <v>0.5088395732651421</v>
       </c>
       <c r="F20">
-        <v>0.654077661019187</v>
+        <v>0.4304385391312806</v>
       </c>
       <c r="G20">
-        <v>0.0007895654981568249</v>
+        <v>0.2953293347128962</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.006508021437856115</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.2459215767687795</v>
       </c>
       <c r="K20">
-        <v>1.282179609567606</v>
+        <v>0.2205594585291095</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.8840342436269069</v>
+        <v>1.163078810904494</v>
       </c>
       <c r="N20">
-        <v>0.6117029423555707</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>1.805094606546675</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0.8544416413973295</v>
+      </c>
+      <c r="P20">
+        <v>0.6065138426428724</v>
+      </c>
+      <c r="Q20">
+        <v>1.090776816574589</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.431163195544059</v>
+        <v>1.163867730352166</v>
       </c>
       <c r="C21">
-        <v>0.1667199518833229</v>
+        <v>0.2474717122444048</v>
       </c>
       <c r="D21">
-        <v>0.08492575059953111</v>
+        <v>0.1218412694287707</v>
       </c>
       <c r="E21">
-        <v>0.562136647669135</v>
+        <v>0.5771158531256617</v>
       </c>
       <c r="F21">
-        <v>0.7079732863894179</v>
+        <v>0.462357979685379</v>
       </c>
       <c r="G21">
-        <v>0.0007850034701146735</v>
+        <v>0.3143404702138213</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.00866773428722567</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.2495618261844044</v>
       </c>
       <c r="K21">
-        <v>1.445106477200795</v>
+        <v>0.2211928645821608</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>1.002745422960672</v>
+        <v>1.303374356473455</v>
       </c>
       <c r="N21">
-        <v>0.5655143814648973</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>1.915472749183692</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0.9669838569290476</v>
+      </c>
+      <c r="P21">
+        <v>0.5750619280319107</v>
+      </c>
+      <c r="Q21">
+        <v>1.139031445639802</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.53880758402471</v>
+        <v>1.250461437613723</v>
       </c>
       <c r="C22">
-        <v>0.1769910051746564</v>
+        <v>0.2607647527177903</v>
       </c>
       <c r="D22">
-        <v>0.08983062918458273</v>
+        <v>0.129759767142076</v>
       </c>
       <c r="E22">
-        <v>0.6072038444469285</v>
+        <v>0.6226629469285001</v>
       </c>
       <c r="F22">
-        <v>0.7446194987894614</v>
+        <v>0.484979310750127</v>
       </c>
       <c r="G22">
-        <v>0.0007820734665283508</v>
+        <v>0.3283691167136453</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.009998037215552813</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.25280442934951</v>
       </c>
       <c r="K22">
-        <v>1.552170614875791</v>
+        <v>0.222807462505898</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>1.081363741127859</v>
+        <v>1.395039947000726</v>
       </c>
       <c r="N22">
-        <v>0.5365859298648097</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>1.992022932609217</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>1.041212915952975</v>
+      </c>
+      <c r="P22">
+        <v>0.5550281058970619</v>
+      </c>
+      <c r="Q22">
+        <v>1.175770930873824</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.481287729173772</v>
+        <v>1.206569219828225</v>
       </c>
       <c r="C23">
-        <v>0.171505547227369</v>
+        <v>0.252423253742478</v>
       </c>
       <c r="D23">
-        <v>0.0872131627433177</v>
+        <v>0.1253330437733808</v>
       </c>
       <c r="E23">
-        <v>0.5830535044813985</v>
+        <v>0.5982944820504486</v>
       </c>
       <c r="F23">
-        <v>0.7249235078155891</v>
+        <v>0.4739036291140337</v>
       </c>
       <c r="G23">
-        <v>0.0007836327145368893</v>
+        <v>0.3218361070874494</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.009009682189940804</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.251556467495945</v>
       </c>
       <c r="K23">
-        <v>1.494969259984941</v>
+        <v>0.2227727105169528</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>1.039300815728652</v>
+        <v>1.3459864675049</v>
       </c>
       <c r="N23">
-        <v>0.5519065949288482</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>1.950741971740371</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>1.001506711378468</v>
+      </c>
+      <c r="P23">
+        <v>0.5654219383498749</v>
+      </c>
+      <c r="Q23">
+        <v>1.159197092700879</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.264827295458218</v>
+        <v>1.03630896342375</v>
       </c>
       <c r="C24">
-        <v>0.1508001910860486</v>
+        <v>0.223133497144687</v>
       </c>
       <c r="D24">
-        <v>0.07729030948794957</v>
+        <v>0.1089195590844554</v>
       </c>
       <c r="E24">
-        <v>0.493595123498821</v>
+        <v>0.5077805549647749</v>
       </c>
       <c r="F24">
-        <v>0.6532192433176718</v>
+        <v>0.4315553283774065</v>
       </c>
       <c r="G24">
-        <v>0.0007896409684324087</v>
+        <v>0.29657498290684</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.00604761322285885</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.2466587906060269</v>
       </c>
       <c r="K24">
-        <v>1.279525192042513</v>
+        <v>0.2218727476479501</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.8821096379476074</v>
+        <v>1.16060370700157</v>
       </c>
       <c r="N24">
-        <v>0.6124782824559141</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>1.803360460902155</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0.8525798885433886</v>
+      </c>
+      <c r="P24">
+        <v>0.606728302905708</v>
+      </c>
+      <c r="Q24">
+        <v>1.094956363867269</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.033658319470305</v>
+        <v>0.8521036832212303</v>
       </c>
       <c r="C25">
-        <v>0.1285607234210033</v>
+        <v>0.1920011773193693</v>
       </c>
       <c r="D25">
-        <v>0.06655603714047231</v>
+        <v>0.09124469019241133</v>
       </c>
       <c r="E25">
-        <v>0.4006341332962577</v>
+        <v>0.4134105139167943</v>
       </c>
       <c r="F25">
-        <v>0.5813097998554042</v>
+        <v>0.3884501247674237</v>
       </c>
       <c r="G25">
-        <v>0.0007963590152048774</v>
+        <v>0.2715004290670322</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.003580411449672027</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.2427020881528392</v>
       </c>
       <c r="K25">
-        <v>1.049069531648854</v>
+        <v>0.2221604853078176</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.7162134233453799</v>
+        <v>0.9608382428575339</v>
       </c>
       <c r="N25">
-        <v>0.6828532443533852</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>1.661335719321812</v>
+        <v>0.6944034836658872</v>
+      </c>
+      <c r="P25">
+        <v>0.6543934842883363</v>
+      </c>
+      <c r="Q25">
+        <v>1.033021171909624</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_6_27/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_6_27/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.7213545368369978</v>
+        <v>0.6972504918269351</v>
       </c>
       <c r="C2">
-        <v>0.166462056357048</v>
+        <v>0.173247987321048</v>
       </c>
       <c r="D2">
-        <v>0.07776241965929387</v>
+        <v>0.08004433805709965</v>
       </c>
       <c r="E2">
-        <v>0.3461970572907163</v>
+        <v>0.3459202515129647</v>
       </c>
       <c r="F2">
-        <v>0.3612090363515534</v>
+        <v>0.3482486172743222</v>
       </c>
       <c r="G2">
-        <v>0.2571083365570601</v>
+        <v>0.227081020339142</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.001692353180664519</v>
+        <v>0.001937049602511287</v>
       </c>
       <c r="J2">
-        <v>0.2420851992248387</v>
+        <v>0.2732234532540474</v>
       </c>
       <c r="K2">
-        <v>0.2254615827358037</v>
+        <v>0.2116067904671191</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.1278077225282566</v>
       </c>
       <c r="M2">
-        <v>0.8133818713288719</v>
+        <v>0.04399810294238726</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0.579441072297179</v>
+        <v>0.8138033591149991</v>
       </c>
       <c r="P2">
-        <v>0.6916612581380903</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>1.0008342121005</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0.5797498294051451</v>
+      </c>
+      <c r="R2">
+        <v>0.6886695548900725</v>
+      </c>
+      <c r="S2">
+        <v>0.9609210927902581</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.6291002716885714</v>
+        <v>0.6117818843668488</v>
       </c>
       <c r="C3">
-        <v>0.1509650984197464</v>
+        <v>0.1537500280157218</v>
       </c>
       <c r="D3">
-        <v>0.06889134392394425</v>
+        <v>0.07053764113813799</v>
       </c>
       <c r="E3">
-        <v>0.3017090608974229</v>
+        <v>0.3015337493879784</v>
       </c>
       <c r="F3">
-        <v>0.3423284132886124</v>
+        <v>0.331574866312117</v>
       </c>
       <c r="G3">
-        <v>0.2468334754988248</v>
+        <v>0.2190123386827665</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.001013885220769506</v>
+        <v>0.001271050769000581</v>
       </c>
       <c r="J3">
-        <v>0.2415374309973188</v>
+        <v>0.2717600245749239</v>
       </c>
       <c r="K3">
-        <v>0.227047374272896</v>
+        <v>0.2143137530654808</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.1325303350476386</v>
       </c>
       <c r="M3">
-        <v>0.7134518179608591</v>
+        <v>0.04253854195718354</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0.5022829639559347</v>
+        <v>0.7139824645384607</v>
       </c>
       <c r="P3">
-        <v>0.7186148815518685</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>0.9776287524108938</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0.5026427483709099</v>
+      </c>
+      <c r="R3">
+        <v>0.7128584248210643</v>
+      </c>
+      <c r="S3">
+        <v>0.9435336273290602</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.5721229153917875</v>
+        <v>0.5588398092646401</v>
       </c>
       <c r="C4">
-        <v>0.1415445375495636</v>
+        <v>0.1419663637405648</v>
       </c>
       <c r="D4">
-        <v>0.06344530758599376</v>
+        <v>0.06471197331379841</v>
       </c>
       <c r="E4">
-        <v>0.2748516577984503</v>
+        <v>0.274734029901829</v>
       </c>
       <c r="F4">
-        <v>0.3311743169804089</v>
+        <v>0.3216884431676377</v>
       </c>
       <c r="G4">
-        <v>0.2408856336637299</v>
+        <v>0.2144163318256105</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.0007311674546959246</v>
+        <v>0.0009762353681241898</v>
       </c>
       <c r="J4">
-        <v>0.2414571057333887</v>
+        <v>0.2709692105227788</v>
       </c>
       <c r="K4">
-        <v>0.2282451934776226</v>
+        <v>0.2161322452624432</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.1355673252253489</v>
       </c>
       <c r="M4">
-        <v>0.6519845991000892</v>
+        <v>0.04212661762425363</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.4551866622970309</v>
+        <v>0.6525693155295187</v>
       </c>
       <c r="P4">
-        <v>0.7358634708455298</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>0.964674375755024</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0.4555594128658171</v>
+      </c>
+      <c r="R4">
+        <v>0.728411359275615</v>
+      </c>
+      <c r="S4">
+        <v>0.9338796073303399</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.5482573376794733</v>
+        <v>0.5365910467372998</v>
       </c>
       <c r="C5">
-        <v>0.1380208436311818</v>
+        <v>0.137524729023113</v>
       </c>
       <c r="D5">
-        <v>0.06127378957216223</v>
+        <v>0.06238938039354025</v>
       </c>
       <c r="E5">
-        <v>0.264004085428482</v>
+        <v>0.2639090321002087</v>
       </c>
       <c r="F5">
-        <v>0.3264660746278949</v>
+        <v>0.3174777816521654</v>
       </c>
       <c r="G5">
-        <v>0.2382921640798656</v>
+        <v>0.2123801774636789</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.0007096377632827</v>
+        <v>0.0009576712730963166</v>
       </c>
       <c r="J5">
-        <v>0.2413540940879244</v>
+        <v>0.2705357691781956</v>
       </c>
       <c r="K5">
-        <v>0.2285654535333279</v>
+        <v>0.2166974918171327</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.1367209982791842</v>
       </c>
       <c r="M5">
-        <v>0.6269339168131296</v>
+        <v>0.04203516800297624</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0.4360610513116114</v>
+        <v>0.6275390040857474</v>
       </c>
       <c r="P5">
-        <v>0.7430780517976761</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>0.9588863633151448</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0.4364352179285333</v>
+      </c>
+      <c r="R5">
+        <v>0.7349500538420433</v>
+      </c>
+      <c r="S5">
+        <v>0.9293820167113296</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.543601341831021</v>
+        <v>0.5322073749090919</v>
       </c>
       <c r="C6">
-        <v>0.13779839772792</v>
+        <v>0.1371784926427893</v>
       </c>
       <c r="D6">
-        <v>0.06097210093823691</v>
+        <v>0.06206395919594598</v>
       </c>
       <c r="E6">
-        <v>0.2622006787631506</v>
+        <v>0.2621093257882734</v>
       </c>
       <c r="F6">
-        <v>0.3253628494911567</v>
+        <v>0.3164587867496422</v>
       </c>
       <c r="G6">
-        <v>0.237553773023599</v>
+        <v>0.2117436635436931</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.0007909336607543338</v>
+        <v>0.00105605564991329</v>
       </c>
       <c r="J6">
-        <v>0.2411784113876649</v>
+        <v>0.2702972553575762</v>
       </c>
       <c r="K6">
-        <v>0.2283501865607338</v>
+        <v>0.2165327253655871</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.1367706662820325</v>
       </c>
       <c r="M6">
-        <v>0.6228085418855045</v>
+        <v>0.04197224413711709</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.4328970271929222</v>
+        <v>0.6234179471997976</v>
       </c>
       <c r="P6">
-        <v>0.7443047021863638</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.9569403810641433</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0.4332714050280373</v>
+      </c>
+      <c r="R6">
+        <v>0.7360823707178472</v>
+      </c>
+      <c r="S6">
+        <v>0.9276612097755788</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.5699154443821897</v>
+        <v>0.5563849941478622</v>
       </c>
       <c r="C7">
-        <v>0.142486407199101</v>
+        <v>0.1427453615793866</v>
       </c>
       <c r="D7">
-        <v>0.06357746999486835</v>
+        <v>0.06495391045368137</v>
       </c>
       <c r="E7">
-        <v>0.2746827321625815</v>
+        <v>0.2746359296015086</v>
       </c>
       <c r="F7">
-        <v>0.330215243241021</v>
+        <v>0.3201812203670613</v>
       </c>
       <c r="G7">
-        <v>0.2399956940133592</v>
+        <v>0.2158165328799981</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.0009426719158938113</v>
+        <v>0.001229891977449604</v>
       </c>
       <c r="J7">
-        <v>0.24101275494737</v>
+        <v>0.2672617387290899</v>
       </c>
       <c r="K7">
-        <v>0.2275077896386328</v>
+        <v>0.2151878162867504</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.1350725960975332</v>
       </c>
       <c r="M7">
-        <v>0.6517463512552979</v>
+        <v>0.04190848221800714</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.4549512811582943</v>
+        <v>0.6517446608096691</v>
       </c>
       <c r="P7">
-        <v>0.7360202886951033</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.9618555050278133</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0.4551860151272962</v>
+      </c>
+      <c r="R7">
+        <v>0.7286809364857501</v>
+      </c>
+      <c r="S7">
+        <v>0.9294228540705234</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.6870916034822869</v>
+        <v>0.664426192990561</v>
       </c>
       <c r="C8">
-        <v>0.1624212338936815</v>
+        <v>0.16715504048436</v>
       </c>
       <c r="D8">
-        <v>0.07491916122649656</v>
+        <v>0.07735047623347668</v>
       </c>
       <c r="E8">
-        <v>0.3307254318353046</v>
+        <v>0.3307205026289566</v>
       </c>
       <c r="F8">
-        <v>0.3534193216261698</v>
+        <v>0.3393834881961979</v>
       </c>
       <c r="G8">
-        <v>0.2523571742285498</v>
+        <v>0.2306964259248048</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.001683125623362258</v>
+        <v>0.001983914075480264</v>
       </c>
       <c r="J8">
-        <v>0.2412589515427328</v>
+        <v>0.2615706458396119</v>
       </c>
       <c r="K8">
-        <v>0.2249841935989068</v>
+        <v>0.2107922444995545</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.1285819472102556</v>
       </c>
       <c r="M8">
-        <v>0.7790786096856124</v>
+        <v>0.04291042617894725</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.5528009825269891</v>
+        <v>0.7775667412265932</v>
       </c>
       <c r="P8">
-        <v>0.7009315069547064</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.9889372765909172</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0.5526646423840162</v>
+      </c>
+      <c r="R8">
+        <v>0.6973692665473088</v>
+      </c>
+      <c r="S8">
+        <v>0.9455458988381906</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.9177104386805581</v>
+        <v>0.8770464105887186</v>
       </c>
       <c r="C9">
-        <v>0.2006028091529544</v>
+        <v>0.2155390551202601</v>
       </c>
       <c r="D9">
-        <v>0.09689870160834602</v>
+        <v>0.1010819293054723</v>
       </c>
       <c r="E9">
-        <v>0.4448600411682619</v>
+        <v>0.4446311435500263</v>
       </c>
       <c r="F9">
-        <v>0.4042609004033295</v>
+        <v>0.3836730577403813</v>
       </c>
       <c r="G9">
-        <v>0.2812103072309853</v>
+        <v>0.256130645005392</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.00396574152104634</v>
+        <v>0.004053946390445873</v>
       </c>
       <c r="J9">
-        <v>0.2446521313520691</v>
+        <v>0.2635121054466651</v>
       </c>
       <c r="K9">
-        <v>0.2232163272989709</v>
+        <v>0.2056009049264773</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.1180063611952633</v>
       </c>
       <c r="M9">
-        <v>1.027945461538906</v>
+        <v>0.04931229835546702</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.7473726273053316</v>
+        <v>1.025467682960141</v>
       </c>
       <c r="P9">
-        <v>0.6376764989024064</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>1.057859429942127</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0.7468348298583081</v>
+      </c>
+      <c r="R9">
+        <v>0.641151749303166</v>
+      </c>
+      <c r="S9">
+        <v>0.9967745722755552</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.084706815142511</v>
+        <v>1.028393795530548</v>
       </c>
       <c r="C10">
-        <v>0.2299042066114225</v>
+        <v>0.251476890608501</v>
       </c>
       <c r="D10">
-        <v>0.1131866850449512</v>
+        <v>0.1193824445317802</v>
       </c>
       <c r="E10">
-        <v>0.5320877686233061</v>
+        <v>0.5320658079138525</v>
       </c>
       <c r="F10">
-        <v>0.4438209534963491</v>
+        <v>0.414636628817199</v>
       </c>
       <c r="G10">
-        <v>0.3041877526672323</v>
+        <v>0.2904228050532041</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.006577888898531725</v>
+        <v>0.0063819450841196</v>
       </c>
       <c r="J10">
-        <v>0.2483584364904985</v>
+        <v>0.2480981898252637</v>
       </c>
       <c r="K10">
-        <v>0.2228144939080039</v>
+        <v>0.2010096095147134</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.1103351899733465</v>
       </c>
       <c r="M10">
-        <v>1.210782157568843</v>
+        <v>0.05573210755650848</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.892761203171645</v>
+        <v>1.203882496746047</v>
       </c>
       <c r="P10">
-        <v>0.5950708697013809</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>1.114773926193379</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0.8909186212057776</v>
+      </c>
+      <c r="R10">
+        <v>0.6045578808386765</v>
+      </c>
+      <c r="S10">
+        <v>1.029400660123798</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.157181699793938</v>
+        <v>1.090582937304902</v>
       </c>
       <c r="C11">
-        <v>0.2451432819484864</v>
+        <v>0.2675046692279324</v>
       </c>
       <c r="D11">
-        <v>0.120892787620221</v>
+        <v>0.1292324288447162</v>
       </c>
       <c r="E11">
-        <v>0.5726620957815669</v>
+        <v>0.573469500115003</v>
       </c>
       <c r="F11">
-        <v>0.4610157352082069</v>
+        <v>0.4220262218604631</v>
       </c>
       <c r="G11">
-        <v>0.313802188111552</v>
+        <v>0.3309761647537215</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.008316026641166374</v>
+        <v>0.007997118809734971</v>
       </c>
       <c r="J11">
-        <v>0.2496771375786722</v>
+        <v>0.2147918313035362</v>
       </c>
       <c r="K11">
-        <v>0.2217502392910937</v>
+        <v>0.1957442731102219</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.1059102357198114</v>
       </c>
       <c r="M11">
-        <v>1.294192838486737</v>
+        <v>0.05768338673004436</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0.9596381039107627</v>
+        <v>1.278884257450017</v>
       </c>
       <c r="P11">
-        <v>0.5768943323878268</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>1.138111009591199</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0.9556230255166014</v>
+      </c>
+      <c r="R11">
+        <v>0.5908990459893104</v>
+      </c>
+      <c r="S11">
+        <v>1.024311063072702</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.186281418311609</v>
+        <v>1.115320843820967</v>
       </c>
       <c r="C12">
-        <v>0.2500484358616717</v>
+        <v>0.272301788606029</v>
       </c>
       <c r="D12">
-        <v>0.1236690317907687</v>
+        <v>0.1329790348308535</v>
       </c>
       <c r="E12">
-        <v>0.5881992027017873</v>
+        <v>0.5894168290540307</v>
       </c>
       <c r="F12">
-        <v>0.4684092938283655</v>
+        <v>0.4249142790100962</v>
       </c>
       <c r="G12">
-        <v>0.3182700838385131</v>
+        <v>0.3511179482575386</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.008829396872443773</v>
+        <v>0.008408764548015313</v>
       </c>
       <c r="J12">
-        <v>0.2506068307742169</v>
+        <v>0.2011510167901207</v>
       </c>
       <c r="K12">
-        <v>0.2220245678106174</v>
+        <v>0.1940624624393301</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.1043876527590886</v>
       </c>
       <c r="M12">
-        <v>1.325708500009625</v>
+        <v>0.05858249469025978</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>0.9850659250809812</v>
+        <v>1.306381146233178</v>
       </c>
       <c r="P12">
-        <v>0.5699907278108256</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>1.149602035261552</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0.9800180145071593</v>
+      </c>
+      <c r="R12">
+        <v>0.5858665551890283</v>
+      </c>
+      <c r="S12">
+        <v>1.022678815817329</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.180357945325284</v>
+        <v>1.110347037204434</v>
       </c>
       <c r="C13">
-        <v>0.2488083389246754</v>
+        <v>0.2710799451576094</v>
       </c>
       <c r="D13">
-        <v>0.1230415241028879</v>
+        <v>0.1321335334530431</v>
       </c>
       <c r="E13">
-        <v>0.5848502224293952</v>
+        <v>0.5859750397501386</v>
       </c>
       <c r="F13">
-        <v>0.4669689544404605</v>
+        <v>0.4244716101540362</v>
       </c>
       <c r="G13">
-        <v>0.3174527767692297</v>
+        <v>0.3467435081179673</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.008678782024253984</v>
+        <v>0.008271070083162968</v>
       </c>
       <c r="J13">
-        <v>0.2504801814474007</v>
+        <v>0.2041614870874895</v>
       </c>
       <c r="K13">
-        <v>0.2220899592444106</v>
+        <v>0.1945477748222899</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.1047543448809414</v>
       </c>
       <c r="M13">
-        <v>1.318902634566655</v>
+        <v>0.05844067006991693</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0.9795811648559223</v>
+        <v>1.300478242430302</v>
       </c>
       <c r="P13">
-        <v>0.571438213249774</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>1.147588649068467</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0.974765103115061</v>
+      </c>
+      <c r="R13">
+        <v>0.5868743659972218</v>
+      </c>
+      <c r="S13">
+        <v>1.02356041961491</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.15972167118818</v>
+        <v>1.092769006093533</v>
       </c>
       <c r="C14">
-        <v>0.2454687900762451</v>
+        <v>0.2678193344572293</v>
       </c>
       <c r="D14">
-        <v>0.1211086226851563</v>
+        <v>0.1295241339233399</v>
       </c>
       <c r="E14">
-        <v>0.5739389981665326</v>
+        <v>0.5747781567867278</v>
       </c>
       <c r="F14">
-        <v>0.4616884595393955</v>
+        <v>0.4223409360367185</v>
       </c>
       <c r="G14">
-        <v>0.3142312371686984</v>
+        <v>0.332613163965064</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.008340906896729727</v>
+        <v>0.008009780133018118</v>
       </c>
       <c r="J14">
-        <v>0.2497848328289649</v>
+        <v>0.2137063630774776</v>
       </c>
       <c r="K14">
-        <v>0.2218256425230294</v>
+        <v>0.1956587857300711</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.1058018364494391</v>
       </c>
       <c r="M14">
-        <v>1.296777812593518</v>
+        <v>0.05777932963723842</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0.9617263532872542</v>
+        <v>1.281155397397356</v>
       </c>
       <c r="P14">
-        <v>0.5763096818867552</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>1.139252093010811</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0.9576305239927478</v>
+      </c>
+      <c r="R14">
+        <v>0.5904530288141956</v>
+      </c>
+      <c r="S14">
+        <v>1.024405048100078</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.146404156747707</v>
+        <v>1.08128523972789</v>
       </c>
       <c r="C15">
-        <v>0.2437863532962439</v>
+        <v>0.2661834870037012</v>
       </c>
       <c r="D15">
-        <v>0.119983040073123</v>
+        <v>0.1280085899831676</v>
       </c>
       <c r="E15">
-        <v>0.5672675365892275</v>
+        <v>0.5679445914496739</v>
       </c>
       <c r="F15">
-        <v>0.4581592072205893</v>
+        <v>0.4206526822336087</v>
       </c>
       <c r="G15">
-        <v>0.3119763438097323</v>
+        <v>0.3242093087555418</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.008218462124219172</v>
+        <v>0.00795216079768668</v>
       </c>
       <c r="J15">
-        <v>0.2492161884410962</v>
+        <v>0.2193308166528922</v>
       </c>
       <c r="K15">
-        <v>0.2214206498273086</v>
+        <v>0.1960834366136588</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.1063622084017268</v>
       </c>
       <c r="M15">
-        <v>1.283262756208586</v>
+        <v>0.05727006711484961</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.9508115090300393</v>
+        <v>1.269247567837795</v>
       </c>
       <c r="P15">
-        <v>0.5793753591649242</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>1.133249629597088</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0.9471293982047584</v>
+      </c>
+      <c r="R15">
+        <v>0.5928054456639842</v>
+      </c>
+      <c r="S15">
+        <v>1.023787462752495</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.074310249169713</v>
+        <v>1.018742911580574</v>
       </c>
       <c r="C16">
-        <v>0.2319177566644299</v>
+        <v>0.2537344939504749</v>
       </c>
       <c r="D16">
-        <v>0.1131697373412237</v>
+        <v>0.1192650782966638</v>
       </c>
       <c r="E16">
-        <v>0.5293869819598029</v>
+        <v>0.5293240967855084</v>
       </c>
       <c r="F16">
-        <v>0.4401103250973506</v>
+        <v>0.4115502380425937</v>
       </c>
       <c r="G16">
-        <v>0.3010985085664331</v>
+        <v>0.2858065742762292</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.007090726670934799</v>
+        <v>0.007051887179314598</v>
       </c>
       <c r="J16">
-        <v>0.2470162168736252</v>
+        <v>0.2488840718926681</v>
       </c>
       <c r="K16">
-        <v>0.2207833099094749</v>
+        <v>0.1994125716113793</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.1099416518708125</v>
       </c>
       <c r="M16">
-        <v>1.205624851260922</v>
+        <v>0.05481700046987115</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.8884573252205143</v>
+        <v>1.199172295278174</v>
       </c>
       <c r="P16">
-        <v>0.5967881856260462</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>1.105400602702119</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0.8867314244225071</v>
+      </c>
+      <c r="R16">
+        <v>0.6063275563844464</v>
+      </c>
+      <c r="S16">
+        <v>1.021965984337143</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.03003794222326</v>
+        <v>0.9796068320171969</v>
       </c>
       <c r="C17">
-        <v>0.2246789493366634</v>
+        <v>0.2456133910825571</v>
       </c>
       <c r="D17">
-        <v>0.1089936127326752</v>
+        <v>0.1141757538801613</v>
       </c>
       <c r="E17">
-        <v>0.5064000596034504</v>
+        <v>0.5060442382795571</v>
       </c>
       <c r="F17">
-        <v>0.4292249648751181</v>
+        <v>0.4048481181401655</v>
       </c>
       <c r="G17">
-        <v>0.2945829151383208</v>
+        <v>0.2684407892011009</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.006461360125830318</v>
+        <v>0.006543295958207906</v>
       </c>
       <c r="J17">
-        <v>0.245761557600737</v>
+        <v>0.2626066763019992</v>
       </c>
       <c r="K17">
-        <v>0.2204806295428696</v>
+        <v>0.2010149740022591</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.1120350204314899</v>
       </c>
       <c r="M17">
-        <v>1.158018689816032</v>
+        <v>0.05321237086586805</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.8503984013605077</v>
+        <v>1.154798435369031</v>
       </c>
       <c r="P17">
-        <v>0.6076953973823009</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>1.088847196629942</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0.8495209620240161</v>
+      </c>
+      <c r="R17">
+        <v>0.6152297805802682</v>
+      </c>
+      <c r="S17">
+        <v>1.017530764805429</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.0062608469959</v>
+        <v>0.9584950818579046</v>
       </c>
       <c r="C18">
-        <v>0.2196174149702728</v>
+        <v>0.2397542987350647</v>
       </c>
       <c r="D18">
-        <v>0.1064457526580327</v>
+        <v>0.1111915493468132</v>
       </c>
       <c r="E18">
-        <v>0.4932862762803012</v>
+        <v>0.4928179028850721</v>
       </c>
       <c r="F18">
-        <v>0.4238166491208091</v>
+        <v>0.4013660227004863</v>
       </c>
       <c r="G18">
-        <v>0.2916384056745542</v>
+        <v>0.2611913615585379</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.005894758594069849</v>
+        <v>0.005986879136177237</v>
       </c>
       <c r="J18">
-        <v>0.2454563358156392</v>
+        <v>0.2688320812492222</v>
       </c>
       <c r="K18">
-        <v>0.220974571257667</v>
+        <v>0.2023638415007909</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.1134144459396165</v>
       </c>
       <c r="M18">
-        <v>1.130554218577544</v>
+        <v>0.05248871805274469</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.8285578051461258</v>
+        <v>1.128697125733623</v>
       </c>
       <c r="P18">
-        <v>0.613900412397431</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>1.081900220838989</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0.8280452069884561</v>
+      </c>
+      <c r="R18">
+        <v>0.6203213593087717</v>
+      </c>
+      <c r="S18">
+        <v>1.016100301623183</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.9968919989783274</v>
+        <v>0.9500142582459432</v>
       </c>
       <c r="C19">
-        <v>0.218609395867233</v>
+        <v>0.2385254422613059</v>
       </c>
       <c r="D19">
-        <v>0.1056966523159417</v>
+        <v>0.1103137537820942</v>
       </c>
       <c r="E19">
-        <v>0.4888445721443162</v>
+        <v>0.4883474903509253</v>
       </c>
       <c r="F19">
-        <v>0.4213899183011733</v>
+        <v>0.3995309649126</v>
       </c>
       <c r="G19">
-        <v>0.2900742059488266</v>
+        <v>0.2585028880257383</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.005878038748218906</v>
+        <v>0.006012655943473888</v>
       </c>
       <c r="J19">
-        <v>0.2450637004856091</v>
+        <v>0.2702813528977757</v>
       </c>
       <c r="K19">
-        <v>0.2206560285426455</v>
+        <v>0.2023444577120976</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.1137069814524132</v>
       </c>
       <c r="M19">
-        <v>1.121324485270094</v>
+        <v>0.05206350864267151</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.8211862650058706</v>
+        <v>1.11984930229562</v>
       </c>
       <c r="P19">
-        <v>0.6161304037981559</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>1.077739446492259</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0.8207775309878542</v>
+      </c>
+      <c r="R19">
+        <v>0.6222574417974265</v>
+      </c>
+      <c r="S19">
+        <v>1.013651970992711</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.034886511543107</v>
+        <v>0.9839322092938119</v>
       </c>
       <c r="C20">
-        <v>0.22537626477326</v>
+        <v>0.2464159182019188</v>
       </c>
       <c r="D20">
-        <v>0.1094264936399441</v>
+        <v>0.1146956560810963</v>
       </c>
       <c r="E20">
-        <v>0.5088395732651421</v>
+        <v>0.5085090580652363</v>
       </c>
       <c r="F20">
-        <v>0.4304385391312806</v>
+        <v>0.4056626013067088</v>
       </c>
       <c r="G20">
-        <v>0.2953293347128962</v>
+        <v>0.270132988828145</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.006508021437856115</v>
+        <v>0.006573553792414977</v>
       </c>
       <c r="J20">
-        <v>0.2459215767687795</v>
+        <v>0.2613776010654476</v>
       </c>
       <c r="K20">
-        <v>0.2205594585291095</v>
+        <v>0.200906212411418</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.1118330447663425</v>
       </c>
       <c r="M20">
-        <v>1.163078810904494</v>
+        <v>0.05340440849667161</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>0.8544416413973295</v>
+        <v>1.159565793136494</v>
       </c>
       <c r="P20">
-        <v>0.6065138426428724</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>1.090776816574589</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0.8534866360043907</v>
+      </c>
+      <c r="R20">
+        <v>0.6142418623114807</v>
+      </c>
+      <c r="S20">
+        <v>1.018304575786971</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.163867730352166</v>
+        <v>1.094997642966263</v>
       </c>
       <c r="C21">
-        <v>0.2474717122444048</v>
+        <v>0.2690256414969525</v>
       </c>
       <c r="D21">
-        <v>0.1218412694287707</v>
+        <v>0.1308844748204621</v>
       </c>
       <c r="E21">
-        <v>0.5771158531256617</v>
+        <v>0.5783021694687775</v>
       </c>
       <c r="F21">
-        <v>0.462357979685379</v>
+        <v>0.4200966386682055</v>
       </c>
       <c r="G21">
-        <v>0.3143404702138213</v>
+        <v>0.3451769977709915</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.00866773428722567</v>
+        <v>0.008355672900945521</v>
       </c>
       <c r="J21">
-        <v>0.2495618261844044</v>
+        <v>0.2026046696820529</v>
       </c>
       <c r="K21">
-        <v>0.2211928645821608</v>
+        <v>0.1938905430738203</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.1050116322242172</v>
       </c>
       <c r="M21">
-        <v>1.303374356473455</v>
+        <v>0.05735354226928635</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>0.9669838569290476</v>
+        <v>1.284723778768637</v>
       </c>
       <c r="P21">
-        <v>0.5750619280319107</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>1.139031445639802</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0.9621447652676167</v>
+      </c>
+      <c r="R21">
+        <v>0.5902678564841004</v>
+      </c>
+      <c r="S21">
+        <v>1.015664289254403</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.250461437613723</v>
+        <v>1.169096015258532</v>
       </c>
       <c r="C22">
-        <v>0.2607647527177903</v>
+        <v>0.2822038393651383</v>
       </c>
       <c r="D22">
-        <v>0.129759767142076</v>
+        <v>0.1415188918058874</v>
       </c>
       <c r="E22">
-        <v>0.6226629469285001</v>
+        <v>0.6249665735953869</v>
       </c>
       <c r="F22">
-        <v>0.484979310750127</v>
+        <v>0.4301379583081939</v>
       </c>
       <c r="G22">
-        <v>0.3283691167136453</v>
+        <v>0.4040246261543672</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.009998037215552813</v>
+        <v>0.009326102456997276</v>
       </c>
       <c r="J22">
-        <v>0.25280442934951</v>
+        <v>0.1714636933686755</v>
       </c>
       <c r="K22">
-        <v>0.222807462505898</v>
+        <v>0.1899699106502588</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.1009941857911034</v>
       </c>
       <c r="M22">
-        <v>1.395039947000726</v>
+        <v>0.06044055352926136</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.041212915952975</v>
+        <v>1.365312598697926</v>
       </c>
       <c r="P22">
-        <v>0.5550281058970619</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>1.175770930873824</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>1.033497891203076</v>
+      </c>
+      <c r="R22">
+        <v>0.5755346042111285</v>
+      </c>
+      <c r="S22">
+        <v>1.015804545302785</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.206569219828225</v>
+        <v>1.132627217509793</v>
       </c>
       <c r="C23">
-        <v>0.252423253742478</v>
+        <v>0.2744398051093242</v>
       </c>
       <c r="D23">
-        <v>0.1253330437733808</v>
+        <v>0.1353107797705349</v>
       </c>
       <c r="E23">
-        <v>0.5982944820504486</v>
+        <v>0.5998047414459933</v>
       </c>
       <c r="F23">
-        <v>0.4739036291140337</v>
+        <v>0.4272449695397853</v>
       </c>
       <c r="G23">
-        <v>0.3218361070874494</v>
+        <v>0.3660978748036996</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.009009682189940804</v>
+        <v>0.008479755419289248</v>
       </c>
       <c r="J23">
-        <v>0.251556467495945</v>
+        <v>0.1924588464521406</v>
       </c>
       <c r="K23">
-        <v>0.2227727105169528</v>
+        <v>0.1933912598759733</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.1035513985363359</v>
       </c>
       <c r="M23">
-        <v>1.3459864675049</v>
+        <v>0.05935368624757587</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.001506711378468</v>
+        <v>1.323824130894621</v>
       </c>
       <c r="P23">
-        <v>0.5654219383498749</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>1.159197092700879</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0.9957309073075749</v>
+      </c>
+      <c r="R23">
+        <v>0.5824717746293828</v>
+      </c>
+      <c r="S23">
+        <v>1.023007799629724</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.03630896342375</v>
+        <v>0.9855133502773867</v>
       </c>
       <c r="C24">
-        <v>0.223133497144687</v>
+        <v>0.2439065015022095</v>
       </c>
       <c r="D24">
-        <v>0.1089195590844554</v>
+        <v>0.1141388599892394</v>
       </c>
       <c r="E24">
-        <v>0.5077805549647749</v>
+        <v>0.5074382188486339</v>
       </c>
       <c r="F24">
-        <v>0.4315553283774065</v>
+        <v>0.4069133559946678</v>
       </c>
       <c r="G24">
-        <v>0.29657498290684</v>
+        <v>0.2709108413961729</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.00604761322285885</v>
+        <v>0.006016570902274587</v>
       </c>
       <c r="J24">
-        <v>0.2466587906060269</v>
+        <v>0.2626953889907853</v>
       </c>
       <c r="K24">
-        <v>0.2218727476479501</v>
+        <v>0.2021870517767681</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.1123745089248125</v>
       </c>
       <c r="M24">
-        <v>1.16060370700157</v>
+        <v>0.05380670056330317</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>0.8525798885433886</v>
+        <v>1.157217764351941</v>
       </c>
       <c r="P24">
-        <v>0.606728302905708</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>1.094956363867269</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0.8516585049259362</v>
+      </c>
+      <c r="R24">
+        <v>0.6141855401727518</v>
+      </c>
+      <c r="S24">
+        <v>1.022797582544428</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.8521036832212303</v>
+        <v>0.816909959716611</v>
       </c>
       <c r="C25">
-        <v>0.1920011773193693</v>
+        <v>0.2046256736053635</v>
       </c>
       <c r="D25">
-        <v>0.09124469019241133</v>
+        <v>0.0947939642551745</v>
       </c>
       <c r="E25">
-        <v>0.4134105139167943</v>
+        <v>0.4131476741364892</v>
       </c>
       <c r="F25">
-        <v>0.3884501247674237</v>
+        <v>0.3705581513851541</v>
       </c>
       <c r="G25">
-        <v>0.2715004290670322</v>
+        <v>0.244103856740459</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.003580411449672027</v>
+        <v>0.003836372788956766</v>
       </c>
       <c r="J25">
-        <v>0.2427020881528392</v>
+        <v>0.2665383857522272</v>
       </c>
       <c r="K25">
-        <v>0.2221604853078176</v>
+        <v>0.2059644528717079</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.1203786058187237</v>
       </c>
       <c r="M25">
-        <v>0.9608382428575339</v>
+        <v>0.04685191687420698</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>0.6944034836658872</v>
+        <v>0.9595071922765612</v>
       </c>
       <c r="P25">
-        <v>0.6543934842883363</v>
+        <v>0</v>
       </c>
       <c r="Q25">
-        <v>1.033021171909624</v>
+        <v>0.6942034811014608</v>
+      </c>
+      <c r="R25">
+        <v>0.655959008812907</v>
+      </c>
+      <c r="S25">
+        <v>0.9795507065667124</v>
       </c>
     </row>
   </sheetData>
